--- a/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1100,6 +1100,152 @@
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>128</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O10" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>128</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="O11" t="n">
+        <v>62.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>8192</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -888,7 +888,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,11 +969,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -988,7 +984,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1005,32 +1001,32 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1.99</v>
+        <v>1.59</v>
       </c>
       <c r="O8" t="n">
-        <v>63.67</v>
+        <v>64.45</v>
       </c>
       <c r="P8" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_17_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1042,11 +1038,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1054,14 +1046,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1076,34 +1068,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.99</v>
+        <v>1.38</v>
       </c>
       <c r="O9" t="n">
-        <v>63.12</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="P9" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.24</v>
+        <v>0.99</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1134,7 +1126,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1154,20 +1146,20 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="O10" t="n">
-        <v>63.05</v>
+        <v>63.67</v>
       </c>
       <c r="P10" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.13</v>
+        <v>0.26</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="n">
@@ -1176,7 +1168,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1200,14 +1192,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1222,28 +1214,174 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O11" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>128</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>50</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O12" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>128</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
         <v>1.76</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O13" t="n">
         <v>62.22</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P13" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q13" t="n">
         <v>0.89</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="n">
+      <c r="S13" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
@@ -957,7 +957,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="O8" t="n">
-        <v>64.45</v>
+        <v>64.15000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.14</v>
+        <v>0.99</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_17_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1073,24 +1073,24 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="O9" t="n">
-        <v>64.15000000000001</v>
+        <v>63.82</v>
       </c>
       <c r="P9" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.99</v>
+        <v>0.45</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_46_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="10">

--- a/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
@@ -653,14 +653,14 @@
         <v>66.05</v>
       </c>
       <c r="P3" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-23_25_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-04_15_17', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S3" t="n">
@@ -742,7 +742,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -754,11 +754,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -773,7 +769,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -793,20 +789,20 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.9</v>
+        <v>1.76</v>
       </c>
       <c r="O5" t="n">
-        <v>65</v>
+        <v>65.28</v>
       </c>
       <c r="P5" t="n">
-        <v>0.05</v>
+        <v>0.23</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.57</v>
+        <v>0.3</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_37_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
@@ -815,7 +811,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -827,11 +823,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -839,14 +831,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -861,34 +853,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.86</v>
+        <v>1.61</v>
       </c>
       <c r="O6" t="n">
-        <v>64.56</v>
+        <v>65.16</v>
       </c>
       <c r="P6" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -900,7 +892,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -915,7 +911,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -935,20 +931,20 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.59</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>64.45</v>
+        <v>65</v>
       </c>
       <c r="P7" t="n">
-        <v>0.16</v>
+        <v>0.05</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.14</v>
+        <v>0.57</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-00_24_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="n">
@@ -957,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -969,7 +965,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -984,7 +984,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1004,29 +1004,29 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.38</v>
+        <v>1.86</v>
       </c>
       <c r="O8" t="n">
-        <v>64.15000000000001</v>
+        <v>64.56</v>
       </c>
       <c r="P8" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.99</v>
+        <v>0.09</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_02_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1073,20 +1073,20 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.39</v>
+        <v>1.61</v>
       </c>
       <c r="O9" t="n">
-        <v>63.82</v>
+        <v>64.48</v>
       </c>
       <c r="P9" t="n">
         <v>0.19</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.45</v>
+        <v>0.14</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-15_46_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">

--- a/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -681,11 +681,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -700,7 +696,7 @@
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -720,20 +716,20 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.94</v>
+        <v>1.72</v>
       </c>
       <c r="O4" t="n">
-        <v>65.34999999999999</v>
+        <v>66.02</v>
       </c>
       <c r="P4" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.12</v>
+        <v>0.3</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_52_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_23_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S4" t="n">
@@ -742,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -769,7 +765,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -789,29 +785,29 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="O5" t="n">
-        <v>65.28</v>
+        <v>65.64</v>
       </c>
       <c r="P5" t="n">
-        <v>0.23</v>
+        <v>0.04</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_37_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-04_57_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -831,14 +827,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -853,34 +849,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="O6" t="n">
-        <v>65.16</v>
+        <v>65.56</v>
       </c>
       <c r="P6" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_58_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -892,11 +888,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -904,14 +896,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -926,34 +918,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="O7" t="n">
-        <v>65</v>
+        <v>65.44</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.11</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_29_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -965,11 +957,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -984,7 +972,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>2500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1004,20 +992,20 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="O8" t="n">
-        <v>64.56</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.09</v>
+        <v>0.37</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_26_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="n">
@@ -1026,7 +1014,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1038,7 +1026,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1053,7 +1045,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1073,29 +1065,29 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="O9" t="n">
-        <v>64.48</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="P9" t="n">
-        <v>0.19</v>
+        <v>0.13</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-20_52_10', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1107,11 +1099,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1126,7 +1114,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1146,29 +1134,29 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.99</v>
+        <v>1.76</v>
       </c>
       <c r="O10" t="n">
-        <v>63.67</v>
+        <v>65.28</v>
       </c>
       <c r="P10" t="n">
-        <v>0.12</v>
+        <v>0.23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_37_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1180,11 +1168,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1199,7 +1183,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1221,27 +1205,27 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.99</v>
+        <v>1.61</v>
       </c>
       <c r="O11" t="n">
-        <v>63.12</v>
+        <v>65.16</v>
       </c>
       <c r="P11" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1272,7 +1256,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1292,29 +1276,29 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="O12" t="n">
-        <v>63.05</v>
+        <v>65</v>
       </c>
       <c r="P12" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.13</v>
+        <v>0.57</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_09_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1326,11 +1310,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1345,7 +1325,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1365,23 +1345,457 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="O13" t="n">
+        <v>64.62</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-06_54_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>128</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O14" t="n">
+        <v>64.56</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_05_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>128</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="O15" t="n">
+        <v>64.48</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_53_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>200</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O16" t="n">
+        <v>63.67</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_22_19', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="O17" t="n">
+        <v>63.12</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O18" t="n">
+        <v>63.05</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_37_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.76</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O19" t="n">
         <v>62.22</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P19" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q19" t="n">
         <v>0.89</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_28_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="n">
+      <c r="S19" t="n">
         <v>8192</v>
       </c>
     </row>

--- a/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l10><NCEK>66.06.xlsx
@@ -573,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -612,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -642,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -681,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -711,7 +723,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -780,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -849,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-05_29_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -987,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1060,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1099,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1129,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1168,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1221,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-05_06_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1271,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1310,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1340,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
@@ -1413,7 +1473,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1452,7 +1514,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1482,7 +1548,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
@@ -1555,7 +1623,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
@@ -1651,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_03_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1701,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1774,7 +1848,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
